--- a/Goals, QA, ASR and concerns.xlsx
+++ b/Goals, QA, ASR and concerns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mswaa\iCloudDrive\Documents\Studie en diploma's\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63843C8-02D9-4C4E-B7FF-4E5D95A72479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E306375F-D5BD-45B0-AEF4-3BEDFAC06BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{78674DF3-9FAE-4687-819F-A7773129C332}"/>
+    <workbookView xWindow="570" yWindow="4215" windowWidth="26340" windowHeight="15435" xr2:uid="{78674DF3-9FAE-4687-819F-A7773129C332}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="160">
   <si>
     <t>Concern</t>
   </si>
@@ -499,6 +499,27 @@
   </si>
   <si>
     <t>Services provided to citizens (both residential and non-residential) are uniformly provided by each government body. Currently, this is mainly provided by having a DigiD that is on itself based on the unique BSN of a citizen.</t>
+  </si>
+  <si>
+    <t>ASR-01</t>
+  </si>
+  <si>
+    <t>ASR-02</t>
+  </si>
+  <si>
+    <t>ASR-03</t>
+  </si>
+  <si>
+    <t>ASR-04</t>
+  </si>
+  <si>
+    <t>ASR-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge of systems and what is legally allowed </t>
+  </si>
+  <si>
+    <t>Knowledge of encryption and standards is scarce</t>
   </si>
 </sst>
 </file>
@@ -614,8 +635,8 @@
     <tableColumn id="1" xr3:uid="{FE3EE9BD-3B25-4B90-AB9E-9F41A7713A6C}" name="Quality attribute number"/>
     <tableColumn id="2" xr3:uid="{A3E79BB2-441C-4DDB-803A-509AAC8D3ADB}" name="Source"/>
     <tableColumn id="3" xr3:uid="{1CA532FD-1ECF-42DD-93FA-940902FDA74C}" name="NL label"/>
-    <tableColumn id="4" xr3:uid="{24A17582-3F06-4978-A55B-7C17791C61BF}" name="EN label" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{27BCA33B-9149-4740-BC49-9C2182AE0AE0}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{24A17582-3F06-4978-A55B-7C17791C61BF}" name="EN label" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{27BCA33B-9149-4740-BC49-9C2182AE0AE0}" name="Description" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{9CA580BB-1EC8-4741-89C1-28D7D5315E6D}" name="Link to documentation"/>
     <tableColumn id="7" xr3:uid="{BBD375D2-26BA-4CE0-9C5C-E4DD5E21DF48}" name="Link with"/>
   </tableColumns>
@@ -630,8 +651,8 @@
     <tableColumn id="1" xr3:uid="{96DBC44D-EA3A-420E-A9E8-170CDA5C84FE}" name="Concern number"/>
     <tableColumn id="2" xr3:uid="{0A92DB61-9775-4B9F-9D2A-8CA7ADFFA9D5}" name="Source"/>
     <tableColumn id="3" xr3:uid="{1F923B09-0072-4FCB-B9DC-71203FA3D1CD}" name="NL label"/>
-    <tableColumn id="4" xr3:uid="{2BEDB844-63B6-49C6-BC99-D4DBD7FFD7F6}" name="EN label" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{63317FEE-6964-4781-A4DB-603911851196}" name="Description" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2BEDB844-63B6-49C6-BC99-D4DBD7FFD7F6}" name="EN label" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{63317FEE-6964-4781-A4DB-603911851196}" name="Description" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{F1F5DD7C-FBAD-45EC-A7E2-50ED7E246DF7}" name="Link to documentation"/>
     <tableColumn id="7" xr3:uid="{861065F0-5FC1-43E3-9D30-0E583D383F8C}" name="Link with"/>
   </tableColumns>
@@ -646,8 +667,8 @@
     <tableColumn id="1" xr3:uid="{62EEE3AE-4DC1-4AD9-AE55-BE5D60F87759}" name="Business goal number"/>
     <tableColumn id="2" xr3:uid="{D514B0E7-3F86-4D49-AD04-ED5FEE45E776}" name="Source"/>
     <tableColumn id="3" xr3:uid="{F02BE015-47A6-4E11-A32F-23577223FC86}" name="NL label"/>
-    <tableColumn id="4" xr3:uid="{00560BD4-9A36-4A3D-A675-5445A5EE314F}" name="EN label" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{3F74E1A5-8EB3-4277-B2AC-4762BF8E03F3}" name="Description" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00560BD4-9A36-4A3D-A675-5445A5EE314F}" name="EN label" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{3F74E1A5-8EB3-4277-B2AC-4762BF8E03F3}" name="Description" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{AB32415A-ED4D-44D1-AF15-169B7D17E0D7}" name="Link to documentation"/>
     <tableColumn id="7" xr3:uid="{B322E0AD-0C9A-429A-8078-EA9807EC0D26}" name="Link with"/>
   </tableColumns>
@@ -662,8 +683,8 @@
     <tableColumn id="1" xr3:uid="{D71A567A-BF81-4089-AF6D-B6D40C500F1E}" name="Stakeholder number"/>
     <tableColumn id="2" xr3:uid="{C1305C50-1AE6-4436-90FD-C0C431DA03B7}" name="Source"/>
     <tableColumn id="3" xr3:uid="{559D4FDD-E839-49D0-9D43-DBCF964796E6}" name="NL label"/>
-    <tableColumn id="4" xr3:uid="{A8357291-F646-4D43-9E14-E692D4978581}" name="EN label" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{92B09910-1091-482A-836A-86E5196AF314}" name="Description" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A8357291-F646-4D43-9E14-E692D4978581}" name="EN label" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{92B09910-1091-482A-836A-86E5196AF314}" name="Description" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{B1EBD1CE-1CCA-4C08-B9AC-0D191856A023}" name="Link to documentation"/>
     <tableColumn id="7" xr3:uid="{6C28A26D-81D6-46C8-BA93-6C4981588245}" name="Link with" dataDxfId="0">
       <calculatedColumnFormula>A29&amp;", "&amp;A30&amp;", "&amp;A31</calculatedColumnFormula>
@@ -970,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E7D65C-A415-4EBE-9D85-F8F37ADB49B9}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="D38" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1317,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ref="G19:G24" si="0">A29&amp;", "&amp;A30&amp;", "&amp;A31</f>
+        <f t="shared" ref="G19" si="0">A29&amp;", "&amp;A30&amp;", "&amp;A31</f>
         <v>BG-03, BG-04, BG-05</v>
       </c>
     </row>
@@ -1516,6 +1537,9 @@
       <c r="C36" t="s">
         <v>94</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="G36" t="str">
         <f>A21</f>
         <v>ST-3</v>
@@ -1532,6 +1556,9 @@
       <c r="C37" t="s">
         <v>70</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1709,6 +1736,10 @@
       <c r="E48" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="G48" t="str">
+        <f>A31&amp; ", "&amp;A44</f>
+        <v>BG-05, C-09</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -1725,8 +1756,8 @@
         <v>96</v>
       </c>
       <c r="G49" t="str">
-        <f>A28</f>
-        <v>BG-02</v>
+        <f>A28&amp;" "&amp;A27&amp; ", "&amp;A36&amp; ", "&amp;A37</f>
+        <v>BG-02 BG-01, C-01, C-02</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1743,6 +1774,10 @@
       <c r="E50" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="G50" t="str">
+        <f>A27&amp;" "&amp;A45</f>
+        <v>BG-01 C-10</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1758,6 +1793,10 @@
       <c r="E51" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="G51" t="str">
+        <f>A31</f>
+        <v>BG-05</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1774,8 +1813,8 @@
         <v>134</v>
       </c>
       <c r="G52" t="str">
-        <f>A29</f>
-        <v>BG-03</v>
+        <f>A29&amp; ", "&amp;A38</f>
+        <v>BG-03, C-03</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1793,8 +1832,33 @@
         <v>118</v>
       </c>
       <c r="G53" t="str">
-        <f>A39&amp; ", "&amp;A40</f>
-        <v>C-04, C-05</v>
+        <f>A27&amp;" "&amp;A39&amp; ", "&amp;A40&amp; ", "&amp;A41</f>
+        <v>BG-01 C-04, C-05, C-06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
